--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-05-28.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-05-28.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="171">
   <si>
     <t>模块</t>
   </si>
@@ -559,7 +559,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,13 +569,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1187,137 +1180,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,7 +1326,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1342,10 +1335,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1360,7 +1353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1369,7 +1362,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1381,58 +1374,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1790,7 +1786,7 @@
   <sheetPr/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2095,7 +2091,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -2105,7 +2101,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -2115,7 +2111,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
@@ -2125,7 +2121,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
@@ -2135,7 +2131,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
@@ -2144,8 +2140,8 @@
       <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
@@ -2172,7 +2168,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -2182,7 +2178,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -2192,7 +2188,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -2202,7 +2198,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
@@ -2212,7 +2208,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
@@ -2221,8 +2217,8 @@
       <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
@@ -2245,8 +2241,8 @@
   <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2432,7 +2428,7 @@
       <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2449,9 +2445,7 @@
       <c r="B14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="C14" s="32"/>
       <c r="D14" s="7" t="s">
         <v>84</v>
       </c>
@@ -2464,9 +2458,7 @@
       <c r="B15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="7" t="s">
         <v>86</v>
       </c>
@@ -2561,181 +2553,182 @@
     <row r="24" spans="1:1">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" s="32" customFormat="1" spans="1:1">
-      <c r="A25" s="33" t="s">
+    <row r="25" s="30" customFormat="1" spans="1:1">
+      <c r="A25" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" s="32" customFormat="1" spans="1:7">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35" t="s">
+    <row r="26" s="30" customFormat="1" spans="1:7">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" s="32" customFormat="1" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35" t="s">
+    <row r="27" s="30" customFormat="1" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" s="32" customFormat="1" spans="1:7">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" s="30" customFormat="1" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" s="32" customFormat="1" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" s="30" customFormat="1" spans="1:7">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" s="32" customFormat="1" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" s="30" customFormat="1" spans="1:7">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" s="32" customFormat="1" spans="1:7">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" s="30" customFormat="1" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" s="32" customFormat="1" spans="1:7">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" s="30" customFormat="1" spans="1:7">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" s="32" customFormat="1" spans="1:7">
-      <c r="A33" s="33"/>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" s="32" customFormat="1" spans="1:7">
-      <c r="A34" s="33" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" s="30" customFormat="1" spans="1:7">
+      <c r="A33" s="34"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" s="30" customFormat="1" spans="1:7">
+      <c r="A34" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" s="32" customFormat="1" spans="1:7">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35" t="s">
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" s="30" customFormat="1" spans="1:7">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" s="32" customFormat="1" spans="1:7">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35" t="s">
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="36" s="30" customFormat="1" spans="1:7">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" s="32" customFormat="1" spans="1:7">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35" t="s">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" s="30" customFormat="1" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" s="32" customFormat="1" spans="1:7">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="38"/>
+    </row>
+    <row r="38" s="30" customFormat="1" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" s="32" customFormat="1" spans="1:7">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" s="30" customFormat="1" spans="1:7">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" s="32" customFormat="1" spans="1:7">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" s="30" customFormat="1" spans="1:7">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" s="32" customFormat="1" spans="1:7">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" s="30" customFormat="1" spans="1:7">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" s="32" customFormat="1"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" s="30" customFormat="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="G26:G41"/>
   </mergeCells>
@@ -2808,7 +2801,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2821,7 +2814,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2836,7 +2829,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6"/>
@@ -2847,7 +2840,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2860,7 +2853,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="29" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2899,7 +2892,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2912,7 +2905,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2925,7 +2918,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2938,7 +2931,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2951,7 +2944,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2964,7 +2957,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2992,7 +2985,7 @@
         <v>107</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,18 +3050,18 @@
       <c r="D2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="25" t="s">
         <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="26" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="2:7">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>121</v>
       </c>
       <c r="G3" t="s">
@@ -3090,10 +3083,10 @@
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>127</v>
       </c>
       <c r="G5" t="s">
@@ -3104,10 +3097,10 @@
       <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>126</v>
       </c>
       <c r="F6" t="s">
@@ -3117,15 +3110,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" s="26" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="26" t="s">
+    <row r="7" s="24" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3136,7 +3129,7 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -3165,7 +3158,7 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:7">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>140</v>
       </c>
       <c r="C14" t="s">
@@ -3174,7 +3167,7 @@
       <c r="D14" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3182,7 +3175,7 @@
       <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3190,7 +3183,7 @@
       <c r="B16" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3198,7 +3191,7 @@
       <c r="B17" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3206,7 +3199,7 @@
       <c r="B18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3214,7 +3207,7 @@
       <c r="B19" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3222,7 +3215,7 @@
       <c r="B20" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3230,7 +3223,7 @@
       <c r="B21" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="26" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3290,12 +3283,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" s="26" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="26" t="s">
+    <row r="32" s="24" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A32" s="27"/>
+      <c r="B32" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="24" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3309,7 +3302,7 @@
       <c r="B35" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="28" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3318,7 +3311,7 @@
       <c r="A37" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="28" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3337,10 +3330,10 @@
       <c r="B41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="28" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3348,7 +3341,7 @@
       <c r="B42" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="28" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3356,7 +3349,7 @@
       <c r="B43" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="30" t="s">
+      <c r="G43" s="28" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3364,7 +3357,7 @@
       <c r="B44" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="28" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3661,8 +3654,6 @@
     </row>
     <row r="23" customFormat="1" spans="1:4">
       <c r="A23" s="3"/>
-      <c r="B23"/>
-      <c r="C23"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" customFormat="1" spans="1:1">
@@ -3688,7 +3679,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -3698,7 +3689,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
@@ -3708,7 +3699,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
@@ -3718,7 +3709,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
@@ -3728,7 +3719,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
@@ -3737,8 +3728,8 @@
       <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
@@ -3765,7 +3756,7 @@
         <v>52</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
@@ -3775,7 +3766,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
@@ -3785,7 +3776,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
@@ -3795,7 +3786,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
@@ -3805,7 +3796,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
@@ -3814,8 +3805,8 @@
       <c r="B40" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>

--- a/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-05-28.xlsx
+++ b/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/烟机工业数字大脑-2024-05-28.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzuogong/IdeaProjects/ike-date/七.烟机------------------------------------2024-04-03/⭐烟机工业数字大脑/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E063C45-7E5F-0B46-9542-F0DFACC2BC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外协订单指标" sheetId="3" r:id="rId1"/>
@@ -552,14 +558,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +572,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -579,12 +580,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -593,6 +595,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -600,6 +603,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -608,6 +612,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -617,155 +622,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,7 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399945066682943"/>
+        <fgColor theme="3" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,194 +653,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1062,255 +745,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,43 +767,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1374,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1386,11 +794,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1398,11 +803,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1412,15 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,66 +837,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
+      <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1778,36 +1139,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="55.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="50.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1820,442 +1181,433 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="C31" s="12"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D34:D40"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="36.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2278,453 +1630,453 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" ht="13" customHeight="1" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="13" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="16" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" s="30" customFormat="1" spans="1:1">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:7" s="17" customFormat="1">
+      <c r="A25" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" s="30" customFormat="1" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36" t="s">
+    <row r="26" spans="1:7" s="17" customFormat="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" s="30" customFormat="1" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36" t="s">
+    <row r="27" spans="1:7" s="17" customFormat="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" s="30" customFormat="1" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" s="30" customFormat="1" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" s="30" customFormat="1" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" s="17" customFormat="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" s="30" customFormat="1" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" s="17" customFormat="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" s="30" customFormat="1" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" s="17" customFormat="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="38"/>
-    </row>
-    <row r="33" s="30" customFormat="1" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" s="30" customFormat="1" spans="1:7">
-      <c r="A34" s="34" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" s="17" customFormat="1">
+      <c r="A33" s="18"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" s="17" customFormat="1">
+      <c r="A34" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" s="30" customFormat="1" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36" t="s">
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" s="17" customFormat="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" s="30" customFormat="1" spans="1:7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" s="17" customFormat="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" s="30" customFormat="1" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" s="17" customFormat="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" s="30" customFormat="1" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" s="17" customFormat="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" s="30" customFormat="1" spans="1:7">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" s="17" customFormat="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" s="30" customFormat="1" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" s="17" customFormat="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" s="30" customFormat="1" spans="1:7">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" s="17" customFormat="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="39"/>
-    </row>
-    <row r="42" s="30" customFormat="1"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="27"/>
+    </row>
+    <row r="42" spans="1:7" s="17" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:C10"/>
@@ -2732,28 +2084,27 @@
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="G26:G41"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.3333333333333" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="4" width="28.3333333333333" customWidth="1"/>
+    <col min="2" max="4" width="28.33203125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="27.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2776,245 +2127,244 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="29" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="29" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="29" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="29" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="29" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="29" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="29" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.6666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="41.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="64.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="38.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="64.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3036,11 +2386,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="2:7">
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="B2" t="s">
         <v>115</v>
       </c>
@@ -3050,25 +2400,25 @@
       <c r="D2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="14" t="s">
         <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="2:7">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
       <c r="G3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="2:7">
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="B4" t="s">
         <v>123</v>
       </c>
@@ -3076,31 +2426,31 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="2:7">
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="B5" t="s">
         <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" t="s">
         <v>127</v>
       </c>
       <c r="G5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="2:7">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" t="s">
         <v>126</v>
       </c>
       <c r="F6" t="s">
@@ -3110,26 +2460,26 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" s="24" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:8" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1"/>
-    <row r="9" ht="20" customHeight="1" spans="1:1">
+    <row r="8" spans="1:8" ht="20" customHeight="1"/>
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:7">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:8" ht="20" customHeight="1">
+      <c r="A10"/>
       <c r="B10" t="s">
         <v>136</v>
       </c>
@@ -3140,7 +2490,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="2:7">
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="B11" t="s">
         <v>138</v>
       </c>
@@ -3151,14 +2501,14 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1"/>
-    <row r="13" ht="20" customHeight="1" spans="1:1">
+    <row r="12" spans="1:8" ht="20" customHeight="1"/>
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="2:7">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
+      <c r="B14" t="s">
         <v>140</v>
       </c>
       <c r="C14" t="s">
@@ -3167,67 +2517,67 @@
       <c r="D14" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="2:7">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="B15" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="2:7">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="B16" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="2:7">
+    <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="B17" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" spans="2:7">
+    <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="B18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="2:7">
+    <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="B19" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="2:7">
+    <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="B20" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1" spans="2:7">
+    <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="B21" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" ht="20" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>151</v>
       </c>
@@ -3235,14 +2585,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" ht="20" customHeight="1"/>
-    <row r="24" ht="20" customHeight="1"/>
-    <row r="25" ht="20" customHeight="1" spans="1:1">
+    <row r="23" spans="1:7" ht="20" customHeight="1"/>
+    <row r="24" spans="1:7" ht="20" customHeight="1"/>
+    <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1" spans="2:6">
+    <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="B26" t="s">
         <v>154</v>
       </c>
@@ -3250,13 +2600,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1"/>
-    <row r="28" ht="20" customHeight="1" spans="1:1">
+    <row r="27" spans="1:7" ht="20" customHeight="1"/>
+    <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="2:6">
+    <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -3264,7 +2614,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" ht="20" customHeight="1" spans="2:6">
+    <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -3272,7 +2622,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" ht="20" customHeight="1" spans="2:7">
+    <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="B31" t="s">
         <v>157</v>
       </c>
@@ -3283,118 +2633,117 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" s="24" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24" t="s">
+    <row r="32" spans="1:7" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1"/>
-    <row r="34" ht="20" customHeight="1" spans="1:1">
+    <row r="33" spans="1:7" ht="20" customHeight="1"/>
+    <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" ht="20" customHeight="1" spans="2:7">
+    <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="B35" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G35" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" ht="20" customHeight="1"/>
-    <row r="37" ht="20" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="20" customHeight="1"/>
+    <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" ht="20" customHeight="1" spans="2:2">
+    <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="B38" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" ht="20" customHeight="1"/>
-    <row r="40" ht="20" customHeight="1" spans="1:1">
+    <row r="39" spans="1:7" ht="20" customHeight="1"/>
+    <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" ht="20" customHeight="1" spans="2:7">
+    <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="B41" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" t="s">
         <v>163</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" ht="20" customHeight="1" spans="2:7">
+    <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="B42" t="s">
         <v>165</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" ht="20" customHeight="1" spans="2:7">
+    <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="B43" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="44" ht="20" customHeight="1" spans="2:7">
+    <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="B44" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" ht="20" customHeight="1"/>
+    <row r="45" spans="1:7" ht="20" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="55.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="54.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="50.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="39.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="37" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="37" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3407,419 +2756,410 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:1">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:1">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:1">
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:1">
+      <c r="C31" s="12"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D34:D40"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>